--- a/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
+++ b/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3110039-C4C6-4C26-9B3F-11D09F2D419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3A86F-82DD-458D-B597-D632C5266073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,27 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵툴로 전체 맵 깔기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 이동 및 조작키 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임무 구현 및 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,6 +183,18 @@
   </si>
   <si>
     <t>총 28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">임무 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 합치고 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="102">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -898,17 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -993,17 +978,6 @@
       <bottom style="thin">
         <color indexed="23"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1239,21 +1213,6 @@
       </diagonal>
     </border>
     <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1458,7 +1417,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1469,103 +1484,17 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1788,6 +1717,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1802,7 +1888,7 @@
     <xf numFmtId="177" fontId="6" fillId="11" borderId="30">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="49">
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1">
@@ -1812,7 +1898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1891,6 +1977,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1901,178 +1990,331 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="43" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="16" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="16" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="16" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="55" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="44" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2080,212 +2322,98 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="97" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="20" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2647,7 +2775,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2662,40 +2790,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -2742,45 +2870,45 @@
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="51" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -2825,95 +2953,95 @@
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="138"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="53">
+      <c r="B3" s="140"/>
+      <c r="C3" s="46">
         <v>8</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="46">
         <v>9</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="46">
         <v>10</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="46">
         <v>11</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="46">
         <v>12</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="48">
         <v>13</v>
       </c>
-      <c r="I3" s="114">
+      <c r="I3" s="95">
         <v>14</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="46">
         <v>15</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="46">
         <v>16</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="46">
         <v>17</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="46">
         <v>18</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="46">
         <v>19</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="46">
         <v>20</v>
       </c>
-      <c r="P3" s="114">
+      <c r="P3" s="95">
         <v>21</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="46">
         <v>22</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="46">
         <v>23</v>
       </c>
-      <c r="S3" s="53">
+      <c r="S3" s="46">
         <v>24</v>
       </c>
-      <c r="T3" s="53">
+      <c r="T3" s="46">
         <v>25</v>
       </c>
-      <c r="U3" s="53">
+      <c r="U3" s="46">
         <v>26</v>
       </c>
-      <c r="V3" s="53">
+      <c r="V3" s="46">
         <v>27</v>
       </c>
-      <c r="W3" s="114">
+      <c r="W3" s="95">
         <v>28</v>
       </c>
-      <c r="X3" s="53">
+      <c r="X3" s="46">
         <v>29</v>
       </c>
-      <c r="Y3" s="54">
+      <c r="Y3" s="47">
         <v>30</v>
       </c>
-      <c r="Z3" s="55">
+      <c r="Z3" s="48">
         <v>1</v>
       </c>
-      <c r="AA3" s="53">
+      <c r="AA3" s="46">
         <v>2</v>
       </c>
-      <c r="AB3" s="53">
+      <c r="AB3" s="46">
         <v>3</v>
       </c>
-      <c r="AC3" s="53">
+      <c r="AC3" s="46">
         <v>4</v>
       </c>
-      <c r="AD3" s="114">
+      <c r="AD3" s="95">
         <v>5</v>
       </c>
-      <c r="AE3" s="53">
+      <c r="AE3" s="46">
         <v>6</v>
       </c>
-      <c r="AF3" s="54">
+      <c r="AF3" s="47">
         <v>7</v>
       </c>
       <c r="AG3" s="6"/>
@@ -2956,38 +3084,38 @@
       <c r="BR3" s="5"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="32"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="32"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="32"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="36"/>
       <c r="Z4" s="32"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="149"/>
       <c r="AC4" s="32"/>
       <c r="AD4" s="33"/>
       <c r="AE4" s="33"/>
@@ -3035,36 +3163,36 @@
       <c r="BU4" s="5"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
-        <v>11</v>
+      <c r="A5" s="114" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="141"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="142"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="13"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="150"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
@@ -3112,36 +3240,36 @@
       <c r="BU5" s="5"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="140" t="s">
-        <v>12</v>
+      <c r="A6" s="114" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="15"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="14"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="13"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="150"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
@@ -3189,36 +3317,36 @@
       <c r="BU6" s="5"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="140" t="s">
-        <v>14</v>
+      <c r="A7" s="114" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="15"/>
       <c r="D7" s="39"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="14"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="13"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="150"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
@@ -3266,38 +3394,38 @@
       <c r="BU7" s="5"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="117" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="40"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="49"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="17"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="17"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="10"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="151"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -3345,36 +3473,36 @@
       <c r="BU8" s="5"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="140" t="s">
-        <v>15</v>
+      <c r="A9" s="114" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="15"/>
       <c r="D9" s="39"/>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="144"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="14"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="13"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="150"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
@@ -3422,36 +3550,36 @@
       <c r="BU9" s="5"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="140" t="s">
-        <v>16</v>
+      <c r="A10" s="114" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="15"/>
       <c r="D10" s="39"/>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="14"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="13"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="150"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
@@ -3499,36 +3627,36 @@
       <c r="BU10" s="5"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="140" t="s">
-        <v>21</v>
+      <c r="A11" s="114" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="29"/>
       <c r="D11" s="41"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="28"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="28"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="28"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="27"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="152"/>
       <c r="AC11" s="28"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -3576,38 +3704,38 @@
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="145" t="s">
-        <v>23</v>
+      <c r="A12" s="118" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="42"/>
       <c r="E12" s="17"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="17"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="17"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="10"/>
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="151"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
@@ -3655,36 +3783,36 @@
       <c r="BU12" s="5"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="140" t="s">
-        <v>17</v>
+      <c r="A13" s="114" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
       <c r="D13" s="39"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="146"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="13"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="150"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
@@ -3736,36 +3864,36 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="140" t="s">
-        <v>20</v>
+      <c r="A14" s="114" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
       <c r="D14" s="39"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="146"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="13"/>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="150"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
@@ -3817,36 +3945,36 @@
       <c r="BY14" s="5"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="140" t="s">
-        <v>18</v>
+      <c r="A15" s="114" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="15"/>
       <c r="D15" s="39"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="13"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="150"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
@@ -3898,36 +4026,36 @@
       <c r="BY15" s="5"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="140" t="s">
-        <v>19</v>
+      <c r="A16" s="114" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="15"/>
       <c r="D16" s="39"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="13"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="150"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
@@ -3979,36 +4107,36 @@
       <c r="BY16" s="5"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="140" t="s">
-        <v>22</v>
+      <c r="A17" s="114" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
       <c r="D17" s="39"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="14"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="14"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="13"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="150"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
@@ -4060,38 +4188,38 @@
       <c r="BY17" s="5"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="147" t="s">
-        <v>24</v>
+      <c r="A18" s="120" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="42"/>
       <c r="E18" s="17"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="17"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="18"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="17"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="10"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="151"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
@@ -4143,36 +4271,36 @@
       <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="148" t="s">
-        <v>29</v>
+      <c r="A19" s="121" t="s">
+        <v>25</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="15"/>
       <c r="D19" s="39"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="14"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="14"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="14"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="13"/>
+      <c r="AA19" s="166"/>
+      <c r="AB19" s="150"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
@@ -4224,36 +4352,36 @@
       <c r="BY19" s="5"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="149" t="s">
-        <v>30</v>
+      <c r="A20" s="122" t="s">
+        <v>26</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="15"/>
       <c r="D20" s="39"/>
       <c r="E20" s="14"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="14"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="13"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="150"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
@@ -4305,38 +4433,38 @@
       <c r="BY20" s="5"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="123" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="42"/>
       <c r="E21" s="17"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="17"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="167"/>
+      <c r="AB21" s="151"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -4388,36 +4516,36 @@
       <c r="BY21" s="5"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="148" t="s">
-        <v>31</v>
+      <c r="A22" s="121" t="s">
+        <v>27</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="15"/>
       <c r="D22" s="39"/>
       <c r="E22" s="14"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="14"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="146"/>
-      <c r="X22" s="14"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="13"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="150"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
@@ -4469,36 +4597,36 @@
       <c r="BY22" s="5"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="149" t="s">
-        <v>32</v>
+      <c r="A23" s="122" t="s">
+        <v>28</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="15"/>
       <c r="D23" s="39"/>
       <c r="E23" s="14"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="14"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="146"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="13"/>
+      <c r="AA23" s="166"/>
+      <c r="AB23" s="150"/>
       <c r="AC23" s="14"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
@@ -4550,36 +4678,36 @@
       <c r="BY23" s="5"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="149" t="s">
-        <v>33</v>
+      <c r="A24" s="122" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="15"/>
       <c r="D24" s="39"/>
       <c r="E24" s="14"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="14"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="109"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="159"/>
+      <c r="Y24" s="20"/>
       <c r="Z24" s="14"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="13"/>
+      <c r="AA24" s="166"/>
+      <c r="AB24" s="150"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
@@ -4631,36 +4759,36 @@
       <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="149" t="s">
-        <v>34</v>
+      <c r="A25" s="122" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="15"/>
       <c r="D25" s="39"/>
       <c r="E25" s="14"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="14"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="166"/>
+      <c r="AB25" s="150"/>
       <c r="AC25" s="14"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
@@ -4712,36 +4840,36 @@
       <c r="BY25" s="5"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="149" t="s">
-        <v>35</v>
+      <c r="A26" s="122" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="15"/>
       <c r="D26" s="39"/>
       <c r="E26" s="14"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="14"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="14"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
       <c r="Y26" s="20"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="13"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="150"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
@@ -4793,42 +4921,42 @@
       <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="124" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="74"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="54"/>
       <c r="U27" s="62"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="77"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="66"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -4876,40 +5004,40 @@
       <c r="BY27" s="5"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="152" t="s">
-        <v>36</v>
+      <c r="A28" s="125" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="153"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="126"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -4957,40 +5085,40 @@
       <c r="BY28" s="5"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="153"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="126"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -5038,42 +5166,42 @@
       <c r="BY29" s="5"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="154" t="s">
-        <v>28</v>
+      <c r="A30" s="127" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="74"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="54"/>
       <c r="U30" s="62"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="108"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="90"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
@@ -5121,40 +5249,40 @@
       <c r="BY30" s="5"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="152" t="s">
-        <v>37</v>
+      <c r="A31" s="125" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="153"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="126"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -5202,40 +5330,40 @@
       <c r="BY31" s="5"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="152" t="s">
-        <v>38</v>
+      <c r="A32" s="125" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="80"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="80"/>
-      <c r="AE32" s="80"/>
-      <c r="AF32" s="155"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="128"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
@@ -5283,40 +5411,40 @@
       <c r="BY32" s="5"/>
     </row>
     <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="156" t="s">
-        <v>39</v>
+      <c r="A33" s="129" t="s">
+        <v>35</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="117"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="98"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
@@ -5364,40 +5492,40 @@
       <c r="BY33" s="5"/>
     </row>
     <row r="34" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
-      <c r="B34" s="133" t="s">
-        <v>40</v>
+      <c r="A34" s="130"/>
+      <c r="B34" s="112" t="s">
+        <v>36</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="129"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="125"/>
-      <c r="U34" s="125"/>
-      <c r="V34" s="125"/>
-      <c r="W34" s="129"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="131"/>
-      <c r="AA34" s="125"/>
-      <c r="AB34" s="129"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="125"/>
-      <c r="AE34" s="125"/>
-      <c r="AF34" s="132"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="111"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>

--- a/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
+++ b/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3A86F-82DD-458D-B597-D632C5266073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75173D7-64B5-4B71-9F4E-3937F506647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$CA$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$CA$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 - 서버로 보내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 - 서버에서 받은 데이터로 갱신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,27 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버로 보낼 데이터 정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버로 보낼 데이터 Set함수 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라에서 받은 데이터로 CheckPlayerInfo() 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어에 따른 충돌체크 &amp; 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임무 수행/피격 판정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,18 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">TCP로 데이터 send &amp; 서버에서 recv (클라 1개) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리된 데이터로 맵 정보 갱신, 정보(임무진척도) 갱신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 - 이벤트 &amp; 프로세스 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 - 클라이언트로 보내기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,31 +102,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SetSendData() 함수 구현 -&gt; 클라이언트마다 다름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라로 send 후 클라에서 recv되었는지 확인(클라 4개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdatePlayerInfo() 함수 구현 후 갱신 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateMapInfo() 함수 구현 후 맵 갱신 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 4개의 맵이 동일하게 변경되었는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 4개의 플레이어 위치 동일한지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 플레이 해보며 잘 돌아가는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,15 +126,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">임무 구현 </t>
+    <t>클라이언트 합치고 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임무 배치</t>
+    <t>아이템 (체력약) 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 합치고 마무리</t>
+    <t>부활 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라에서 받은 데이터 저장하는 StoreData() 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버의 MapUpdate() 함수 구현 (아이템 생성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개의 클라, 아이템을 여러 개 배치하여 갱신 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버의 CollisionCheck() 함수 구현</t>
+  </si>
+  <si>
+    <t>서버의 CheckRevive() 함수 구현 및 부활 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 - 서버로 보내기, 서버에서 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 - 동기화 &amp; 프로세스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 - 클라이언트로 보내기, 클라에서 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버로 보낼 SendData() 함수 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라로 보낼 SendData() 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBeforeRender() 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 4개의 맵, 위치 동일하게 변경되었는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적 게임 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +205,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -275,8 +274,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="한컴 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="108">
+  <borders count="113">
     <border>
       <left/>
       <right/>
@@ -1874,6 +1885,77 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1898,7 +1980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2136,15 +2218,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2157,22 +2233,13 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2292,6 +2359,99 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="97" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="20" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2322,97 +2482,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="97" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="20" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="30" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="5" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2769,13 +2884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD236"/>
+  <dimension ref="A1:CD235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
+      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2790,40 +2905,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -2869,46 +2984,46 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
-        <v>9</v>
+      <c r="A2" s="163" t="s">
+        <v>8</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="131" t="s">
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="132"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -2952,8 +3067,8 @@
       <c r="BU2" s="5"/>
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="140"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
       <c r="C3" s="46">
         <v>8</v>
       </c>
@@ -2972,7 +3087,7 @@
       <c r="H3" s="48">
         <v>13</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="90">
         <v>14</v>
       </c>
       <c r="J3" s="46">
@@ -2993,7 +3108,7 @@
       <c r="O3" s="46">
         <v>20</v>
       </c>
-      <c r="P3" s="95">
+      <c r="P3" s="90">
         <v>21</v>
       </c>
       <c r="Q3" s="46">
@@ -3014,7 +3129,7 @@
       <c r="V3" s="46">
         <v>27</v>
       </c>
-      <c r="W3" s="95">
+      <c r="W3" s="90">
         <v>28</v>
       </c>
       <c r="X3" s="46">
@@ -3035,7 +3150,7 @@
       <c r="AC3" s="46">
         <v>4</v>
       </c>
-      <c r="AD3" s="95">
+      <c r="AD3" s="90">
         <v>5</v>
       </c>
       <c r="AE3" s="46">
@@ -3084,17 +3199,17 @@
       <c r="BR3" s="5"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="38"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="141"/>
+      <c r="G4" s="126"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
@@ -3114,8 +3229,8 @@
       <c r="X4" s="35"/>
       <c r="Y4" s="36"/>
       <c r="Z4" s="32"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="149"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="134"/>
       <c r="AC4" s="32"/>
       <c r="AD4" s="33"/>
       <c r="AE4" s="33"/>
@@ -3163,15 +3278,15 @@
       <c r="BU4" s="5"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="114" t="s">
-        <v>37</v>
+      <c r="A5" s="109" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="115"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="116"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="142"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -3191,8 +3306,8 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="150"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="135"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
@@ -3240,15 +3355,15 @@
       <c r="BU5" s="5"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="114" t="s">
-        <v>38</v>
+      <c r="A6" s="109" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="15"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="142"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -3268,8 +3383,8 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="14"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="150"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="135"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
@@ -3317,15 +3432,15 @@
       <c r="BU6" s="5"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114" t="s">
-        <v>39</v>
+      <c r="A7" s="109" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="15"/>
       <c r="D7" s="39"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="147"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -3345,8 +3460,8 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="14"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="150"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="135"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
@@ -3394,11 +3509,11 @@
       <c r="BU7" s="5"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="117" t="s">
-        <v>6</v>
+      <c r="A8" s="112" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="40"/>
@@ -3424,8 +3539,8 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="17"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="151"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="136"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -3473,16 +3588,16 @@
       <c r="BU8" s="5"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="114" t="s">
-        <v>11</v>
+      <c r="A9" s="109" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="15"/>
       <c r="D9" s="39"/>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="148"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="133"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -3501,8 +3616,8 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="14"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="150"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="135"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
@@ -3550,18 +3665,18 @@
       <c r="BU9" s="5"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="114" t="s">
-        <v>12</v>
+      <c r="A10" s="109" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="15"/>
       <c r="D10" s="39"/>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="142"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
@@ -3578,8 +3693,8 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="14"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="150"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="135"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
@@ -3627,15 +3742,15 @@
       <c r="BU10" s="5"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="114" t="s">
-        <v>17</v>
+      <c r="A11" s="109" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="29"/>
       <c r="D11" s="41"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="143"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="28"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
@@ -3655,8 +3770,8 @@
       <c r="X11" s="29"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="28"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="152"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="137"/>
       <c r="AC11" s="28"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -3704,11 +3819,11 @@
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="118" t="s">
-        <v>19</v>
+      <c r="A12" s="113" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="42"/>
@@ -3726,7 +3841,7 @@
       <c r="P12" s="75"/>
       <c r="Q12" s="76"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="18"/>
+      <c r="S12" s="182"/>
       <c r="T12" s="54"/>
       <c r="U12" s="9"/>
       <c r="V12" s="10"/>
@@ -3734,8 +3849,8 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="17"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="151"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="136"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
@@ -3783,21 +3898,21 @@
       <c r="BU12" s="5"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="114" t="s">
-        <v>13</v>
+      <c r="A13" s="109" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
       <c r="D13" s="39"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="142"/>
+      <c r="G13" s="127"/>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="119"/>
+      <c r="M13" s="114"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -3811,8 +3926,8 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="150"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="135"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
@@ -3864,22 +3979,22 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="114" t="s">
-        <v>16</v>
+      <c r="A14" s="167" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
       <c r="D14" s="39"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="142"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="14"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="119"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13"/>
@@ -3892,8 +4007,8 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="150"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="135"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
@@ -3945,15 +4060,15 @@
       <c r="BY14" s="5"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="114" t="s">
-        <v>14</v>
+      <c r="A15" s="109" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="15"/>
       <c r="D15" s="39"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="142"/>
+      <c r="G15" s="127"/>
       <c r="H15" s="14"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3961,8 +4076,8 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
@@ -3973,8 +4088,8 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="150"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="135"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
@@ -4026,15 +4141,15 @@
       <c r="BY15" s="5"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="114" t="s">
-        <v>15</v>
+      <c r="A16" s="109" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="15"/>
       <c r="D16" s="39"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="142"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4044,7 +4159,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="119"/>
+      <c r="Q16" s="114"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
       <c r="T16" s="52"/>
@@ -4054,8 +4169,8 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="150"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="135"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
@@ -4106,16 +4221,16 @@
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
     </row>
-    <row r="17" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114" t="s">
-        <v>18</v>
+    <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="109" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
       <c r="D17" s="39"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="142"/>
+      <c r="G17" s="127"/>
       <c r="H17" s="14"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4126,7 +4241,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="119"/>
+      <c r="R17" s="169"/>
       <c r="S17" s="15"/>
       <c r="T17" s="52"/>
       <c r="U17" s="12"/>
@@ -4135,8 +4250,8 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="14"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="150"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="135"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
@@ -4187,43 +4302,41 @@
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
     </row>
-    <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="120" t="s">
-        <v>20</v>
+    <row r="18" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="109" t="s">
+        <v>29</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="20"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
@@ -4271,40 +4384,42 @@
       <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="121" t="s">
-        <v>25</v>
+      <c r="A19" s="115" t="s">
+        <v>33</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="20"/>
+      <c r="B19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="21"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -4352,15 +4467,15 @@
       <c r="BY19" s="5"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="122" t="s">
-        <v>26</v>
+      <c r="A20" s="116" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="15"/>
       <c r="D20" s="39"/>
       <c r="E20" s="14"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="142"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="14"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4372,16 +4487,16 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="150"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="174"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="135"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
@@ -4433,42 +4548,40 @@
       <c r="BY20" s="5"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="123" t="s">
-        <v>7</v>
+      <c r="A21" s="117" t="s">
+        <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="167"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="21"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="20"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -4516,40 +4629,42 @@
       <c r="BY21" s="5"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="121" t="s">
-        <v>27</v>
+      <c r="A22" s="118" t="s">
+        <v>6</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="20"/>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="178"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="180"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="21"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -4597,15 +4712,15 @@
       <c r="BY22" s="5"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
-        <v>28</v>
+      <c r="A23" s="116" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="15"/>
       <c r="D23" s="39"/>
       <c r="E23" s="14"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="142"/>
+      <c r="G23" s="127"/>
       <c r="H23" s="14"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4618,15 +4733,15 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="150"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="179"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="172"/>
+      <c r="AB23" s="181"/>
       <c r="AC23" s="14"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
@@ -4678,15 +4793,15 @@
       <c r="BY23" s="5"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="122" t="s">
-        <v>29</v>
+      <c r="A24" s="117" t="s">
+        <v>38</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="15"/>
       <c r="D24" s="39"/>
       <c r="E24" s="14"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="14"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4699,15 +4814,15 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="150"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="172"/>
+      <c r="AB24" s="181"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
@@ -4759,15 +4874,15 @@
       <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="122" t="s">
-        <v>30</v>
+      <c r="A25" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="15"/>
       <c r="D25" s="39"/>
       <c r="E25" s="14"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="127"/>
       <c r="H25" s="14"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4780,15 +4895,15 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="150"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="176"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="181"/>
       <c r="AC25" s="14"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
@@ -4840,40 +4955,42 @@
       <c r="BY25" s="5"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="122" t="s">
-        <v>31</v>
+      <c r="A26" s="119" t="s">
+        <v>7</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="150"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="20"/>
+      <c r="B26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="66"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -4921,42 +5038,40 @@
       <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="124" t="s">
-        <v>8</v>
+      <c r="A27" s="120" t="s">
+        <v>17</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="66"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="121"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -5004,15 +5119,15 @@
       <c r="BY27" s="5"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="125" t="s">
-        <v>32</v>
+      <c r="A28" s="120" t="s">
+        <v>1</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="67"/>
       <c r="D28" s="68"/>
       <c r="E28" s="69"/>
       <c r="F28" s="70"/>
-      <c r="G28" s="145"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="71"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
@@ -5030,14 +5145,14 @@
       <c r="V28" s="72"/>
       <c r="W28" s="71"/>
       <c r="X28" s="67"/>
-      <c r="Y28" s="163"/>
+      <c r="Y28" s="148"/>
       <c r="Z28" s="69"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="69"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="69"/>
-      <c r="AF28" s="126"/>
+      <c r="AF28" s="121"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -5085,40 +5200,42 @@
       <c r="BY28" s="5"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="125" t="s">
-        <v>1</v>
+      <c r="A29" s="122" t="s">
+        <v>15</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="126"/>
+      <c r="B29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="141"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="86"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -5166,42 +5283,40 @@
       <c r="BY29" s="5"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="127" t="s">
-        <v>24</v>
+      <c r="A30" s="120" t="s">
+        <v>18</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="169"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="84"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="69"/>
       <c r="AE30" s="89"/>
-      <c r="AF30" s="90"/>
+      <c r="AF30" s="121"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
@@ -5249,15 +5364,15 @@
       <c r="BY30" s="5"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="125" t="s">
-        <v>33</v>
+      <c r="A31" s="120" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
       <c r="E31" s="69"/>
       <c r="F31" s="70"/>
-      <c r="G31" s="145"/>
+      <c r="G31" s="130"/>
       <c r="H31" s="71"/>
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
@@ -5275,14 +5390,14 @@
       <c r="V31" s="72"/>
       <c r="W31" s="71"/>
       <c r="X31" s="67"/>
-      <c r="Y31" s="163"/>
+      <c r="Y31" s="148"/>
       <c r="Z31" s="69"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="140"/>
       <c r="AC31" s="71"/>
       <c r="AD31" s="69"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="126"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="123"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -5330,40 +5445,40 @@
       <c r="BY31" s="5"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="125" t="s">
-        <v>34</v>
+      <c r="A32" s="124" t="s">
+        <v>20</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="128"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="93"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
@@ -5410,41 +5525,41 @@
       <c r="BX32" s="5"/>
       <c r="BY32" s="5"/>
     </row>
-    <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="129" t="s">
-        <v>35</v>
+    <row r="33" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="125"/>
+      <c r="B33" s="107" t="s">
+        <v>21</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="103"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
       <c r="R33" s="101"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="161"/>
-      <c r="AA33" s="171"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="98"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="106"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
@@ -5491,41 +5606,12 @@
       <c r="BX33" s="5"/>
       <c r="BY33" s="5"/>
     </row>
-    <row r="34" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="130"/>
-      <c r="B34" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="108"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="111"/>
+    <row r="34" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
@@ -5572,13 +5658,13 @@
       <c r="BX34" s="5"/>
       <c r="BY34" s="5"/>
     </row>
-    <row r="35" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="AG35" s="5"/>
+      <c r="AG35" s="6"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
@@ -5621,6 +5707,8 @@
       <c r="BU35" s="5"/>
       <c r="BV35" s="5"/>
       <c r="BW35" s="5"/>
+      <c r="BX35" s="5"/>
+      <c r="BY35" s="5"/>
     </row>
     <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
@@ -5678,6 +5766,8 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
@@ -5719,8 +5809,6 @@
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
       <c r="BW37" s="5"/>
-      <c r="BX37" s="5"/>
-      <c r="BY37" s="5"/>
     </row>
     <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
@@ -5878,6 +5966,8 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
@@ -5968,12 +6058,53 @@
       <c r="BX42" s="5"/>
       <c r="BY42" s="5"/>
     </row>
-    <row r="43" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="5"/>
+      <c r="BV43" s="5"/>
+      <c r="BW43" s="5"/>
+      <c r="BX43" s="5"/>
+      <c r="BY43" s="5"/>
     </row>
     <row r="44" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
@@ -5995,6 +6126,32 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
     </row>
     <row r="47" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
@@ -6061,6 +6218,7 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
     </row>
     <row r="49" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
@@ -6129,9 +6287,6 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
@@ -6211,40 +6366,12 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6257,7 +6384,6 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
@@ -6266,22 +6392,19 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="5"/>
       <c r="AL57" s="5"/>
@@ -6295,13 +6418,13 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
+      <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5"/>
-      <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
@@ -6360,12 +6483,46 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
     </row>
     <row r="65" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B65" s="5"/>
@@ -6434,44 +6591,10 @@
       <c r="AF66" s="5"/>
     </row>
     <row r="67" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C68" s="3"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
     </row>
     <row r="69" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C69" s="3"/>
@@ -6489,6 +6612,10 @@
     </row>
     <row r="71" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C71" s="3"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
     </row>
     <row r="72" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C72" s="3"/>
@@ -6498,14 +6625,6 @@
     </row>
     <row r="74" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-      <c r="AP74" s="5"/>
-      <c r="AQ74" s="5"/>
-      <c r="AR74" s="5"/>
     </row>
     <row r="75" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C75" s="3"/>
@@ -6531,6 +6650,7 @@
     </row>
     <row r="77" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C77" s="3"/>
+      <c r="AK77" s="5"/>
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
       <c r="AN77" s="5"/>
@@ -6538,44 +6658,6 @@
       <c r="AP77" s="5"/>
       <c r="AQ77" s="5"/>
       <c r="AR77" s="5"/>
-      <c r="AS77" s="5"/>
-      <c r="AT77" s="5"/>
-      <c r="AU77" s="5"/>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="5"/>
-      <c r="AZ77" s="5"/>
-      <c r="BA77" s="5"/>
-      <c r="BB77" s="5"/>
-      <c r="BC77" s="5"/>
-      <c r="BD77" s="5"/>
-      <c r="BE77" s="5"/>
-      <c r="BF77" s="5"/>
-      <c r="BG77" s="5"/>
-      <c r="BH77" s="5"/>
-      <c r="BI77" s="5"/>
-      <c r="BJ77" s="5"/>
-      <c r="BK77" s="5"/>
-      <c r="BL77" s="5"/>
-      <c r="BM77" s="5"/>
-      <c r="BN77" s="5"/>
-      <c r="BO77" s="5"/>
-      <c r="BP77" s="5"/>
-      <c r="BQ77" s="5"/>
-      <c r="BR77" s="5"/>
-      <c r="BS77" s="5"/>
-      <c r="BT77" s="5"/>
-      <c r="BU77" s="5"/>
-      <c r="BV77" s="5"/>
-      <c r="BW77" s="5"/>
-      <c r="BX77" s="5"/>
-      <c r="BY77" s="5"/>
-      <c r="BZ77" s="5"/>
-      <c r="CA77" s="5"/>
-      <c r="CB77" s="5"/>
-      <c r="CC77" s="5"/>
-      <c r="CD77" s="5"/>
     </row>
     <row r="78" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C78" s="3"/>
@@ -13633,41 +13715,83 @@
       <c r="CC224" s="5"/>
       <c r="CD224" s="5"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="AL225" s="5"/>
+      <c r="AM225" s="5"/>
+      <c r="AN225" s="5"/>
+      <c r="AO225" s="5"/>
+      <c r="AP225" s="5"/>
+      <c r="AQ225" s="5"/>
+      <c r="AR225" s="5"/>
+      <c r="AS225" s="5"/>
+      <c r="AT225" s="5"/>
+      <c r="AU225" s="5"/>
+      <c r="AV225" s="5"/>
+      <c r="AW225" s="5"/>
+      <c r="AX225" s="5"/>
+      <c r="AY225" s="5"/>
+      <c r="AZ225" s="5"/>
+      <c r="BA225" s="5"/>
+      <c r="BB225" s="5"/>
+      <c r="BC225" s="5"/>
+      <c r="BD225" s="5"/>
+      <c r="BE225" s="5"/>
+      <c r="BF225" s="5"/>
+      <c r="BG225" s="5"/>
+      <c r="BH225" s="5"/>
+      <c r="BI225" s="5"/>
+      <c r="BJ225" s="5"/>
+      <c r="BK225" s="5"/>
+      <c r="BL225" s="5"/>
+      <c r="BM225" s="5"/>
+      <c r="BN225" s="5"/>
+      <c r="BO225" s="5"/>
+      <c r="BP225" s="5"/>
+      <c r="BQ225" s="5"/>
+      <c r="BR225" s="5"/>
+      <c r="BS225" s="5"/>
+      <c r="BT225" s="5"/>
+      <c r="BU225" s="5"/>
+      <c r="BV225" s="5"/>
+      <c r="BW225" s="5"/>
+      <c r="BX225" s="5"/>
+      <c r="BY225" s="5"/>
+      <c r="BZ225" s="5"/>
+      <c r="CA225" s="5"/>
+      <c r="CB225" s="5"/>
+      <c r="CC225" s="5"/>
+      <c r="CD225" s="5"/>
+    </row>
+    <row r="226" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C236" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
+++ b/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75173D7-64B5-4B71-9F4E-3937F506647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68792679-B52A-4FCA-96E2-1F15E921F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총 28일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 합치고 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,10 @@
   </si>
   <si>
     <t>전체적 게임 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2452,6 +2452,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="30" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="5" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2481,54 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="30" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="5" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2890,7 +2890,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
+      <selection pane="bottomRight" activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2905,40 +2905,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -2984,46 +2984,46 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="157" t="s">
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -3067,8 +3067,8 @@
       <c r="BU2" s="5"/>
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="46">
         <v>8</v>
       </c>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="110"/>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="15"/>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="15"/>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>13</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="15"/>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="42"/>
@@ -3841,7 +3841,7 @@
       <c r="P12" s="75"/>
       <c r="Q12" s="76"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="182"/>
+      <c r="S12" s="172"/>
       <c r="T12" s="54"/>
       <c r="U12" s="9"/>
       <c r="V12" s="10"/>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
@@ -3979,8 +3979,8 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="167" t="s">
-        <v>26</v>
+      <c r="A14" s="157" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="15"/>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
@@ -4241,7 +4241,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="169"/>
+      <c r="R17" s="159"/>
       <c r="S17" s="15"/>
       <c r="T17" s="52"/>
       <c r="U17" s="12"/>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="15"/>
@@ -4322,7 +4322,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="168"/>
+      <c r="R18" s="158"/>
       <c r="S18" s="144"/>
       <c r="T18" s="52"/>
       <c r="U18" s="12"/>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>14</v>
@@ -4406,15 +4406,15 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="17"/>
-      <c r="S19" s="170"/>
+      <c r="S19" s="160"/>
       <c r="T19" s="77"/>
       <c r="U19" s="78"/>
-      <c r="V19" s="177"/>
+      <c r="V19" s="167"/>
       <c r="W19" s="136"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="171"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="161"/>
       <c r="AB19" s="136"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="9"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="15"/>
@@ -4487,15 +4487,15 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="168"/>
+      <c r="S20" s="158"/>
       <c r="T20" s="114"/>
       <c r="U20" s="52"/>
       <c r="V20" s="15"/>
       <c r="W20" s="135"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="172"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="162"/>
       <c r="AB20" s="135"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="12"/>
@@ -4575,8 +4575,8 @@
       <c r="W21" s="135"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="172"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="162"/>
       <c r="AB21" s="135"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="12"/>
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="42"/>
@@ -4654,13 +4654,13 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
       <c r="U22" s="54"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="178"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="168"/>
       <c r="X22" s="79"/>
       <c r="Y22" s="143"/>
-      <c r="Z22" s="175"/>
-      <c r="AA22" s="171"/>
-      <c r="AB22" s="180"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="170"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="15"/>
@@ -4736,12 +4736,12 @@
       <c r="T23" s="15"/>
       <c r="U23" s="52"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="179"/>
+      <c r="W23" s="169"/>
       <c r="X23" s="87"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="181"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="171"/>
       <c r="AC23" s="14"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="15"/>
@@ -4820,9 +4820,9 @@
       <c r="W24" s="135"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="144"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="181"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="171"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="15"/>
@@ -4901,9 +4901,9 @@
       <c r="W25" s="135"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="176"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="181"/>
+      <c r="Z25" s="166"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="171"/>
       <c r="AC25" s="14"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
@@ -5528,7 +5528,7 @@
     <row r="33" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="125"/>
       <c r="B33" s="107" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C33" s="99"/>
       <c r="D33" s="100"/>

--- a/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
+++ b/네트워크 게임 프로그래밍/Term Project/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68792679-B52A-4FCA-96E2-1F15E921F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226CAF4B-E3B1-4120-9235-666F66821252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -275,13 +275,22 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <strike/>
       <sz val="9"/>
       <name val="한컴 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,30 +328,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,12 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBAC1F8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,13 +1937,13 @@
     <xf numFmtId="177" fontId="4" fillId="4" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="47">
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1">
@@ -1980,7 +1953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,15 +1978,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2029,94 +1993,13 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2128,32 +2011,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="43" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2203,28 +2068,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2233,16 +2080,13 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2278,124 +2122,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="16" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="11" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="30" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="97" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="20" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2410,9 +2206,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2431,18 +2224,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2452,52 +2236,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="30" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="30" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="5" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,6 +2277,201 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="97" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2890,7 +2833,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AO26" sqref="AO26"/>
+      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2905,40 +2848,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="177"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="102"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -2984,46 +2927,46 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="173" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="174"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="99"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -3067,96 +3010,96 @@
       <c r="BU2" s="5"/>
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="46">
+      <c r="A3" s="105"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="16">
         <v>9</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="16">
         <v>10</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="16">
         <v>11</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="16">
         <v>12</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="18">
         <v>13</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="47">
         <v>14</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="16">
         <v>15</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="16">
         <v>16</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="16">
         <v>17</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="16">
         <v>18</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="16">
         <v>19</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="16">
         <v>20</v>
       </c>
-      <c r="P3" s="90">
+      <c r="P3" s="47">
         <v>21</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="16">
         <v>22</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="16">
         <v>23</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="16">
         <v>24</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="16">
         <v>25</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3" s="16">
         <v>26</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="16">
         <v>27</v>
       </c>
-      <c r="W3" s="90">
+      <c r="W3" s="47">
         <v>28</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="16">
         <v>29</v>
       </c>
-      <c r="Y3" s="47">
+      <c r="Y3" s="17">
         <v>30</v>
       </c>
-      <c r="Z3" s="48">
+      <c r="Z3" s="18">
         <v>1</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="16">
         <v>2</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3" s="16">
         <v>3</v>
       </c>
-      <c r="AC3" s="46">
+      <c r="AC3" s="16">
         <v>4</v>
       </c>
-      <c r="AD3" s="90">
+      <c r="AD3" s="47">
         <v>5</v>
       </c>
-      <c r="AE3" s="46">
+      <c r="AE3" s="16">
         <v>6</v>
       </c>
-      <c r="AF3" s="47">
+      <c r="AF3" s="17">
         <v>7</v>
       </c>
       <c r="AG3" s="6"/>
@@ -3202,39 +3145,39 @@
       <c r="A4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="36"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="119"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -3278,40 +3221,40 @@
       <c r="BU4" s="5"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="20"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="133"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
@@ -3355,40 +3298,40 @@
       <c r="BU5" s="5"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="20"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="133"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -3432,40 +3375,40 @@
       <c r="BU6" s="5"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="20"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="133"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -3509,42 +3452,42 @@
       <c r="BU7" s="5"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="21"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="146"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -3588,40 +3531,40 @@
       <c r="BU8" s="5"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="20"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="133"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
@@ -3665,40 +3608,40 @@
       <c r="BU9" s="5"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="20"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="133"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -3742,40 +3685,40 @@
       <c r="BU10" s="5"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="30"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="159"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -3819,42 +3762,42 @@
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="21"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="146"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -3898,40 +3841,40 @@
       <c r="BU12" s="5"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="20"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="133"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -3979,40 +3922,40 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="20"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="133"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -4060,40 +4003,40 @@
       <c r="BY14" s="5"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="20"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="133"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
@@ -4141,40 +4084,40 @@
       <c r="BY15" s="5"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="20"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="133"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -4222,40 +4165,40 @@
       <c r="BY16" s="5"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="20"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="133"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
@@ -4303,40 +4246,40 @@
       <c r="BY17" s="5"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="20"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="13"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
@@ -4384,42 +4327,42 @@
       <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="167"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="21"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="144"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="146"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -4467,40 +4410,40 @@
       <c r="BY19" s="5"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="20"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="133"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -4548,40 +4491,40 @@
       <c r="BY20" s="5"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="20"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="133"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -4629,42 +4572,42 @@
       <c r="BY21" s="5"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="143"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="21"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="144"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="141"/>
+      <c r="AE22" s="141"/>
+      <c r="AF22" s="146"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -4712,40 +4655,40 @@
       <c r="BY22" s="5"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="169"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="171"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="20"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="133"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -4793,40 +4736,40 @@
       <c r="BY23" s="5"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="20"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="133"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -4874,40 +4817,40 @@
       <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="20"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="13"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -4955,42 +4898,42 @@
       <c r="BY25" s="5"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="80"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="66"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="30"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -5038,40 +4981,40 @@
       <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="121"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="69"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -5119,40 +5062,40 @@
       <c r="BY27" s="5"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="121"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="69"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -5200,42 +5143,42 @@
       <c r="BY28" s="5"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="154"/>
-      <c r="AB29" s="141"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="86"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="44"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -5283,40 +5226,40 @@
       <c r="BY29" s="5"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="121"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="69"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
@@ -5364,40 +5307,40 @@
       <c r="BY30" s="5"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="123"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="71"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -5445,40 +5388,40 @@
       <c r="BY31" s="5"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="124" t="s">
+      <c r="A32" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="142"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="91"/>
-      <c r="AF32" s="93"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="50"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
@@ -5526,40 +5469,40 @@
       <c r="BY32" s="5"/>
     </row>
     <row r="33" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="125"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="106"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="63"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
